--- a/user-data/profits-pct-fdi/profits-pct-fdi.xlsx
+++ b/user-data/profits-pct-fdi/profits-pct-fdi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>id</t>
   </si>
@@ -1354,9 +1354,6 @@
     <t>Source: Development Initiatives calculations based on World Bank and UNCTAD</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1742,42 +1739,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15">
@@ -1793,11 +1790,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/profits-pct-fdi/profits-pct-fdi.xlsx
+++ b/user-data/profits-pct-fdi/profits-pct-fdi.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1363,7 +1363,7 @@
     <t>This indicator is the ratio of the outflow of profits on foreign direct investment leaving each country to the total of new foreign direct investments in the same countries each year.</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/profits-pct-fdi/profits-pct-fdi.xlsx
+++ b/user-data/profits-pct-fdi/profits-pct-fdi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
   <si>
     <t>id</t>
   </si>
@@ -1369,7 +1369,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1792,6 +1795,11 @@
         <v>453</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>454</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/profits-pct-fdi/profits-pct-fdi.xlsx
+++ b/user-data/profits-pct-fdi/profits-pct-fdi.xlsx
@@ -67,7 +67,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -175,7 +175,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -212,12 +212,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -298,6 +292,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -313,7 +313,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -991,7 +991,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1009,7 +1009,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1183,7 +1183,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1207,7 +1207,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1228,16 +1228,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1378,7 +1378,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -7547,7 +7547,7 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>   121</v>
+        <v>    83</v>
       </c>
     </row>
     <row r="437">
@@ -7561,7 +7561,7 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>    99</v>
+        <v>    91</v>
       </c>
     </row>
     <row r="438">
@@ -7575,7 +7575,7 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>   133</v>
+        <v>   110</v>
       </c>
     </row>
     <row r="439">
@@ -7589,7 +7589,7 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>   202</v>
+        <v>   190</v>
       </c>
     </row>
     <row r="440">
@@ -7603,7 +7603,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>   129</v>
+        <v>   156</v>
       </c>
     </row>
     <row r="441">
@@ -7617,7 +7617,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>   119</v>
+        <v>    60</v>
       </c>
     </row>
     <row r="442">
@@ -7631,7 +7631,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>   150</v>
+        <v>    56</v>
       </c>
     </row>
     <row r="443">
@@ -7645,7 +7645,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>   124</v>
+        <v>    41</v>
       </c>
     </row>
     <row r="444">
@@ -7659,7 +7659,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>   130</v>
+        <v>    49</v>
       </c>
     </row>
     <row r="445">
@@ -7673,7 +7673,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>   152</v>
+        <v>    65</v>
       </c>
     </row>
     <row r="446">
@@ -7687,7 +7687,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>   166</v>
+        <v>    53</v>
       </c>
     </row>
     <row r="447">
@@ -7701,7 +7701,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>     0</v>
+        <v>    56</v>
       </c>
     </row>
     <row r="448">
@@ -7715,7 +7715,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>     0</v>
+        <v>    43</v>
       </c>
     </row>
     <row r="449">
@@ -7729,7 +7729,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>     0</v>
+        <v>    50</v>
       </c>
     </row>
     <row r="450">
@@ -7743,7 +7743,7 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>    83</v>
+        <v>    26</v>
       </c>
     </row>
     <row r="451">
@@ -7757,7 +7757,7 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>    91</v>
+        <v>    74</v>
       </c>
     </row>
     <row r="452">
@@ -7771,7 +7771,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>   110</v>
+        <v>    15</v>
       </c>
     </row>
     <row r="453">
@@ -7785,7 +7785,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>   190</v>
+        <v>    37</v>
       </c>
     </row>
     <row r="454">
@@ -7799,7 +7799,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>   156</v>
+        <v>   216</v>
       </c>
     </row>
     <row r="455">
@@ -7813,7 +7813,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>    60</v>
+        <v>   119</v>
       </c>
     </row>
     <row r="456">
@@ -7827,7 +7827,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>    56</v>
+        <v>    17</v>
       </c>
     </row>
     <row r="457">
@@ -7841,7 +7841,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>    41</v>
+        <v>   203</v>
       </c>
     </row>
     <row r="458">
@@ -7855,7 +7855,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>    49</v>
+        <v>   787</v>
       </c>
     </row>
     <row r="459">
@@ -7869,7 +7869,7 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>    65</v>
+        <v>    59</v>
       </c>
     </row>
     <row r="460">
@@ -7883,7 +7883,7 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>    53</v>
+        <v>    31</v>
       </c>
     </row>
     <row r="461">
@@ -7897,7 +7897,7 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>    56</v>
+        <v>    43</v>
       </c>
     </row>
     <row r="462">
@@ -7911,7 +7911,7 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>    43</v>
+        <v>    96</v>
       </c>
     </row>
     <row r="463">
@@ -7925,7 +7925,7 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>    50</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="464">
@@ -7938,9 +7938,7 @@
       <c r="C464" t="n">
         <v>2000</v>
       </c>
-      <c r="D464" t="n">
-        <v>    26</v>
-      </c>
+      <c r="D464"/>
     </row>
     <row r="465">
       <c r="A465" t="s">
@@ -7952,9 +7950,7 @@
       <c r="C465" t="n">
         <v>2001</v>
       </c>
-      <c r="D465" t="n">
-        <v>    74</v>
-      </c>
+      <c r="D465"/>
     </row>
     <row r="466">
       <c r="A466" t="s">
@@ -7966,9 +7962,7 @@
       <c r="C466" t="n">
         <v>2002</v>
       </c>
-      <c r="D466" t="n">
-        <v>    15</v>
-      </c>
+      <c r="D466"/>
     </row>
     <row r="467">
       <c r="A467" t="s">
@@ -7980,9 +7974,7 @@
       <c r="C467" t="n">
         <v>2003</v>
       </c>
-      <c r="D467" t="n">
-        <v>    37</v>
-      </c>
+      <c r="D467"/>
     </row>
     <row r="468">
       <c r="A468" t="s">
@@ -7994,9 +7986,7 @@
       <c r="C468" t="n">
         <v>2004</v>
       </c>
-      <c r="D468" t="n">
-        <v>   216</v>
-      </c>
+      <c r="D468"/>
     </row>
     <row r="469">
       <c r="A469" t="s">
@@ -8008,9 +7998,7 @@
       <c r="C469" t="n">
         <v>2005</v>
       </c>
-      <c r="D469" t="n">
-        <v>   119</v>
-      </c>
+      <c r="D469"/>
     </row>
     <row r="470">
       <c r="A470" t="s">
@@ -8022,9 +8010,7 @@
       <c r="C470" t="n">
         <v>2006</v>
       </c>
-      <c r="D470" t="n">
-        <v>    17</v>
-      </c>
+      <c r="D470"/>
     </row>
     <row r="471">
       <c r="A471" t="s">
@@ -8036,9 +8022,7 @@
       <c r="C471" t="n">
         <v>2007</v>
       </c>
-      <c r="D471" t="n">
-        <v>   203</v>
-      </c>
+      <c r="D471"/>
     </row>
     <row r="472">
       <c r="A472" t="s">
@@ -8050,9 +8034,7 @@
       <c r="C472" t="n">
         <v>2008</v>
       </c>
-      <c r="D472" t="n">
-        <v>   787</v>
-      </c>
+      <c r="D472"/>
     </row>
     <row r="473">
       <c r="A473" t="s">
@@ -8064,9 +8046,7 @@
       <c r="C473" t="n">
         <v>2009</v>
       </c>
-      <c r="D473" t="n">
-        <v>    59</v>
-      </c>
+      <c r="D473"/>
     </row>
     <row r="474">
       <c r="A474" t="s">
@@ -8078,9 +8058,7 @@
       <c r="C474" t="n">
         <v>2010</v>
       </c>
-      <c r="D474" t="n">
-        <v>    31</v>
-      </c>
+      <c r="D474"/>
     </row>
     <row r="475">
       <c r="A475" t="s">
@@ -8092,9 +8070,7 @@
       <c r="C475" t="n">
         <v>2011</v>
       </c>
-      <c r="D475" t="n">
-        <v>    43</v>
-      </c>
+      <c r="D475"/>
     </row>
     <row r="476">
       <c r="A476" t="s">
@@ -8106,9 +8082,7 @@
       <c r="C476" t="n">
         <v>2012</v>
       </c>
-      <c r="D476" t="n">
-        <v>    96</v>
-      </c>
+      <c r="D476"/>
     </row>
     <row r="477">
       <c r="A477" t="s">
@@ -8120,9 +8094,7 @@
       <c r="C477" t="n">
         <v>2013</v>
       </c>
-      <c r="D477" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D477"/>
     </row>
     <row r="478">
       <c r="A478" t="s">
@@ -8134,7 +8106,9 @@
       <c r="C478" t="n">
         <v>2000</v>
       </c>
-      <c r="D478"/>
+      <c r="D478" t="n">
+        <v>    12</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
@@ -8146,7 +8120,9 @@
       <c r="C479" t="n">
         <v>2001</v>
       </c>
-      <c r="D479"/>
+      <c r="D479" t="n">
+        <v>    11</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
@@ -8158,7 +8134,9 @@
       <c r="C480" t="n">
         <v>2002</v>
       </c>
-      <c r="D480"/>
+      <c r="D480" t="n">
+        <v>    11</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
@@ -8170,7 +8148,9 @@
       <c r="C481" t="n">
         <v>2003</v>
       </c>
-      <c r="D481"/>
+      <c r="D481" t="n">
+        <v>     8</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
@@ -8182,7 +8162,9 @@
       <c r="C482" t="n">
         <v>2004</v>
       </c>
-      <c r="D482"/>
+      <c r="D482" t="n">
+        <v>     6</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
@@ -8194,7 +8176,9 @@
       <c r="C483" t="n">
         <v>2005</v>
       </c>
-      <c r="D483"/>
+      <c r="D483" t="n">
+        <v>    13</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
@@ -8206,7 +8190,9 @@
       <c r="C484" t="n">
         <v>2006</v>
       </c>
-      <c r="D484"/>
+      <c r="D484" t="n">
+        <v>    18</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
@@ -8218,7 +8204,9 @@
       <c r="C485" t="n">
         <v>2007</v>
       </c>
-      <c r="D485"/>
+      <c r="D485" t="n">
+        <v>    15</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
@@ -8230,7 +8218,9 @@
       <c r="C486" t="n">
         <v>2008</v>
       </c>
-      <c r="D486"/>
+      <c r="D486" t="n">
+        <v>    14</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
@@ -8242,7 +8232,9 @@
       <c r="C487" t="n">
         <v>2009</v>
       </c>
-      <c r="D487"/>
+      <c r="D487" t="n">
+        <v>    15</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
@@ -8254,7 +8246,9 @@
       <c r="C488" t="n">
         <v>2010</v>
       </c>
-      <c r="D488"/>
+      <c r="D488" t="n">
+        <v>    35</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
@@ -8266,7 +8260,9 @@
       <c r="C489" t="n">
         <v>2011</v>
       </c>
-      <c r="D489"/>
+      <c r="D489" t="n">
+        <v>    27</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
@@ -8278,7 +8274,9 @@
       <c r="C490" t="n">
         <v>2012</v>
       </c>
-      <c r="D490"/>
+      <c r="D490" t="n">
+        <v>    40</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
@@ -8290,7 +8288,9 @@
       <c r="C491" t="n">
         <v>2013</v>
       </c>
-      <c r="D491"/>
+      <c r="D491" t="n">
+        <v>    70</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="s">
@@ -8303,7 +8303,7 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>    12</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="493">
@@ -8317,7 +8317,7 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>    11</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="494">
@@ -8331,7 +8331,7 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>    11</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="495">
@@ -8345,7 +8345,7 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>     8</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="496">
@@ -8359,7 +8359,7 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>     6</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="497">
@@ -8373,7 +8373,7 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>    13</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="498">
@@ -8387,7 +8387,7 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>    18</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="499">
@@ -8401,7 +8401,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>    15</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="500">
@@ -8415,7 +8415,7 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>    14</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="501">
@@ -8429,7 +8429,7 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>    15</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="502">
@@ -8443,7 +8443,7 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>    35</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="503">
@@ -8457,7 +8457,7 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>    27</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="504">
@@ -8471,7 +8471,7 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>    40</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="505">
@@ -8485,7 +8485,7 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>    70</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="506">
@@ -8498,9 +8498,7 @@
       <c r="C506" t="n">
         <v>2000</v>
       </c>
-      <c r="D506" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D506"/>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -8512,9 +8510,7 @@
       <c r="C507" t="n">
         <v>2001</v>
       </c>
-      <c r="D507" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D507"/>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -8526,9 +8522,7 @@
       <c r="C508" t="n">
         <v>2002</v>
       </c>
-      <c r="D508" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D508"/>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -8540,9 +8534,7 @@
       <c r="C509" t="n">
         <v>2003</v>
       </c>
-      <c r="D509" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -8554,9 +8546,7 @@
       <c r="C510" t="n">
         <v>2004</v>
       </c>
-      <c r="D510" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -8568,9 +8558,7 @@
       <c r="C511" t="n">
         <v>2005</v>
       </c>
-      <c r="D511" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -8582,9 +8570,7 @@
       <c r="C512" t="n">
         <v>2006</v>
       </c>
-      <c r="D512" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D512"/>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -8596,9 +8582,7 @@
       <c r="C513" t="n">
         <v>2007</v>
       </c>
-      <c r="D513" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -8610,9 +8594,7 @@
       <c r="C514" t="n">
         <v>2008</v>
       </c>
-      <c r="D514" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -8624,9 +8606,7 @@
       <c r="C515" t="n">
         <v>2009</v>
       </c>
-      <c r="D515" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D515"/>
     </row>
     <row r="516">
       <c r="A516" t="s">
@@ -8638,9 +8618,7 @@
       <c r="C516" t="n">
         <v>2010</v>
       </c>
-      <c r="D516" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -8652,9 +8630,7 @@
       <c r="C517" t="n">
         <v>2011</v>
       </c>
-      <c r="D517" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
@@ -8666,9 +8642,7 @@
       <c r="C518" t="n">
         <v>2012</v>
       </c>
-      <c r="D518" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -8680,9 +8654,7 @@
       <c r="C519" t="n">
         <v>2013</v>
       </c>
-      <c r="D519" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D519"/>
     </row>
     <row r="520">
       <c r="A520" t="s">
@@ -8694,7 +8666,9 @@
       <c r="C520" t="n">
         <v>2000</v>
       </c>
-      <c r="D520"/>
+      <c r="D520" t="n">
+        <v>     0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -8706,7 +8680,9 @@
       <c r="C521" t="n">
         <v>2001</v>
       </c>
-      <c r="D521"/>
+      <c r="D521" t="n">
+        <v>     0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
@@ -8718,7 +8694,9 @@
       <c r="C522" t="n">
         <v>2002</v>
       </c>
-      <c r="D522"/>
+      <c r="D522" t="n">
+        <v>     0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -8730,7 +8708,9 @@
       <c r="C523" t="n">
         <v>2003</v>
       </c>
-      <c r="D523"/>
+      <c r="D523" t="n">
+        <v>     0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -8742,7 +8722,9 @@
       <c r="C524" t="n">
         <v>2004</v>
       </c>
-      <c r="D524"/>
+      <c r="D524" t="n">
+        <v>     0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -8790,7 +8772,9 @@
       <c r="C528" t="n">
         <v>2008</v>
       </c>
-      <c r="D528"/>
+      <c r="D528" t="n">
+        <v>     0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -8802,7 +8786,9 @@
       <c r="C529" t="n">
         <v>2009</v>
       </c>
-      <c r="D529"/>
+      <c r="D529" t="n">
+        <v>     0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
@@ -8814,7 +8800,9 @@
       <c r="C530" t="n">
         <v>2010</v>
       </c>
-      <c r="D530"/>
+      <c r="D530" t="n">
+        <v>     0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -8826,7 +8814,9 @@
       <c r="C531" t="n">
         <v>2011</v>
       </c>
-      <c r="D531"/>
+      <c r="D531" t="n">
+        <v>     0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -8838,7 +8828,9 @@
       <c r="C532" t="n">
         <v>2012</v>
       </c>
-      <c r="D532"/>
+      <c r="D532" t="n">
+        <v>     0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
@@ -8850,7 +8842,9 @@
       <c r="C533" t="n">
         <v>2013</v>
       </c>
-      <c r="D533"/>
+      <c r="D533" t="n">
+        <v>     0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
@@ -8862,9 +8856,7 @@
       <c r="C534" t="n">
         <v>2000</v>
       </c>
-      <c r="D534" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D534"/>
     </row>
     <row r="535">
       <c r="A535" t="s">
@@ -8876,9 +8868,7 @@
       <c r="C535" t="n">
         <v>2001</v>
       </c>
-      <c r="D535" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D535"/>
     </row>
     <row r="536">
       <c r="A536" t="s">
@@ -8890,9 +8880,7 @@
       <c r="C536" t="n">
         <v>2002</v>
       </c>
-      <c r="D536" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D536"/>
     </row>
     <row r="537">
       <c r="A537" t="s">
@@ -8904,9 +8892,7 @@
       <c r="C537" t="n">
         <v>2003</v>
       </c>
-      <c r="D537" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D537"/>
     </row>
     <row r="538">
       <c r="A538" t="s">
@@ -8918,9 +8904,7 @@
       <c r="C538" t="n">
         <v>2004</v>
       </c>
-      <c r="D538" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D538"/>
     </row>
     <row r="539">
       <c r="A539" t="s">
@@ -8968,9 +8952,7 @@
       <c r="C542" t="n">
         <v>2008</v>
       </c>
-      <c r="D542" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D542"/>
     </row>
     <row r="543">
       <c r="A543" t="s">
@@ -8982,9 +8964,7 @@
       <c r="C543" t="n">
         <v>2009</v>
       </c>
-      <c r="D543" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D543"/>
     </row>
     <row r="544">
       <c r="A544" t="s">
@@ -8996,9 +8976,7 @@
       <c r="C544" t="n">
         <v>2010</v>
       </c>
-      <c r="D544" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D544"/>
     </row>
     <row r="545">
       <c r="A545" t="s">
@@ -9010,9 +8988,7 @@
       <c r="C545" t="n">
         <v>2011</v>
       </c>
-      <c r="D545" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D545"/>
     </row>
     <row r="546">
       <c r="A546" t="s">
@@ -9024,9 +9000,7 @@
       <c r="C546" t="n">
         <v>2012</v>
       </c>
-      <c r="D546" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D546"/>
     </row>
     <row r="547">
       <c r="A547" t="s">
@@ -9038,9 +9012,7 @@
       <c r="C547" t="n">
         <v>2013</v>
       </c>
-      <c r="D547" t="n">
-        <v>     0</v>
-      </c>
+      <c r="D547"/>
     </row>
     <row r="548">
       <c r="A548" t="s">
@@ -9052,7 +9024,9 @@
       <c r="C548" t="n">
         <v>2000</v>
       </c>
-      <c r="D548"/>
+      <c r="D548" t="n">
+        <v>    50</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
@@ -9064,7 +9038,9 @@
       <c r="C549" t="n">
         <v>2001</v>
       </c>
-      <c r="D549"/>
+      <c r="D549" t="n">
+        <v>    46</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
@@ -9076,7 +9052,9 @@
       <c r="C550" t="n">
         <v>2002</v>
       </c>
-      <c r="D550"/>
+      <c r="D550" t="n">
+        <v>    34</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="s">
@@ -9088,7 +9066,9 @@
       <c r="C551" t="n">
         <v>2003</v>
       </c>
-      <c r="D551"/>
+      <c r="D551" t="n">
+        <v>    37</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="s">
@@ -9100,7 +9080,9 @@
       <c r="C552" t="n">
         <v>2004</v>
       </c>
-      <c r="D552"/>
+      <c r="D552" t="n">
+        <v>    31</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
@@ -9112,7 +9094,9 @@
       <c r="C553" t="n">
         <v>2005</v>
       </c>
-      <c r="D553"/>
+      <c r="D553" t="n">
+        <v>    66</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
@@ -9124,7 +9108,9 @@
       <c r="C554" t="n">
         <v>2006</v>
       </c>
-      <c r="D554"/>
+      <c r="D554" t="n">
+        <v>    68</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="s">
@@ -9136,7 +9122,9 @@
       <c r="C555" t="n">
         <v>2007</v>
       </c>
-      <c r="D555"/>
+      <c r="D555" t="n">
+        <v>    74</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="s">
@@ -9148,7 +9136,9 @@
       <c r="C556" t="n">
         <v>2008</v>
       </c>
-      <c r="D556"/>
+      <c r="D556" t="n">
+        <v>    67</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
@@ -9160,7 +9150,9 @@
       <c r="C557" t="n">
         <v>2009</v>
       </c>
-      <c r="D557"/>
+      <c r="D557" t="n">
+        <v>   112</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="s">
@@ -9172,7 +9164,9 @@
       <c r="C558" t="n">
         <v>2010</v>
       </c>
-      <c r="D558"/>
+      <c r="D558" t="n">
+        <v>   139</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
@@ -9184,7 +9178,9 @@
       <c r="C559" t="n">
         <v>2011</v>
       </c>
-      <c r="D559"/>
+      <c r="D559" t="n">
+        <v>   165</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="s">
@@ -9196,7 +9192,9 @@
       <c r="C560" t="n">
         <v>2012</v>
       </c>
-      <c r="D560"/>
+      <c r="D560" t="n">
+        <v>   142</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
@@ -9208,7 +9206,9 @@
       <c r="C561" t="n">
         <v>2013</v>
       </c>
-      <c r="D561"/>
+      <c r="D561" t="n">
+        <v>   167</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
@@ -9221,7 +9221,7 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>    50</v>
+        <v>    27</v>
       </c>
     </row>
     <row r="563">
@@ -9235,7 +9235,7 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>    46</v>
+        <v>    36</v>
       </c>
     </row>
     <row r="564">
@@ -9249,7 +9249,7 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>    34</v>
+        <v>    50</v>
       </c>
     </row>
     <row r="565">
@@ -9263,7 +9263,7 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>    37</v>
+        <v>    88</v>
       </c>
     </row>
     <row r="566">
@@ -9277,7 +9277,7 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>    31</v>
+        <v>    81</v>
       </c>
     </row>
     <row r="567">
@@ -9291,7 +9291,7 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>    66</v>
+        <v>    35</v>
       </c>
     </row>
     <row r="568">
@@ -9305,7 +9305,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>    68</v>
+        <v>    69</v>
       </c>
     </row>
     <row r="569">
@@ -9319,7 +9319,7 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>    74</v>
+        <v>    73</v>
       </c>
     </row>
     <row r="570">
@@ -9333,7 +9333,7 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>    67</v>
+        <v>    82</v>
       </c>
     </row>
     <row r="571">
@@ -9347,7 +9347,7 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>   112</v>
+        <v>   107</v>
       </c>
     </row>
     <row r="572">
@@ -9361,7 +9361,7 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>   139</v>
+        <v>   148</v>
       </c>
     </row>
     <row r="573">
@@ -9375,7 +9375,7 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>   165</v>
+        <v>   110</v>
       </c>
     </row>
     <row r="574">
@@ -9389,7 +9389,7 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>   142</v>
+        <v>    96</v>
       </c>
     </row>
     <row r="575">
@@ -9403,7 +9403,7 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>   167</v>
+        <v>    80</v>
       </c>
     </row>
     <row r="576">
@@ -9417,7 +9417,7 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v>    27</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="577">
@@ -9431,7 +9431,7 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v>    36</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="578">
@@ -9445,7 +9445,7 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v>    50</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="579">
@@ -9459,7 +9459,7 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v>    88</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="580">
@@ -9473,7 +9473,7 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>    81</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="581">
@@ -9487,7 +9487,7 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>    35</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="582">
@@ -9501,7 +9501,7 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>    69</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="583">
@@ -9515,7 +9515,7 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>    73</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="584">
@@ -9529,7 +9529,7 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v>    82</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="585">
@@ -9543,7 +9543,7 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v>   107</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="586">
@@ -9557,7 +9557,7 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v>   148</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="587">
@@ -9571,7 +9571,7 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v>   110</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="588">
@@ -9585,7 +9585,7 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v>    96</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="589">
@@ -9599,7 +9599,7 @@
         <v>2013</v>
       </c>
       <c r="D589" t="n">
-        <v>    80</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="590">
@@ -9613,7 +9613,7 @@
         <v>2000</v>
       </c>
       <c r="D590" t="n">
-        <v>     0</v>
+        <v>   288</v>
       </c>
     </row>
     <row r="591">
@@ -9627,7 +9627,7 @@
         <v>2001</v>
       </c>
       <c r="D591" t="n">
-        <v>     0</v>
+        <v>   517</v>
       </c>
     </row>
     <row r="592">
@@ -9641,7 +9641,7 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>     0</v>
+        <v>   438</v>
       </c>
     </row>
     <row r="593">
@@ -9655,7 +9655,7 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>     0</v>
+        <v>   121</v>
       </c>
     </row>
     <row r="594">
@@ -9669,7 +9669,7 @@
         <v>2004</v>
       </c>
       <c r="D594" t="n">
-        <v>     0</v>
+        <v>   126</v>
       </c>
     </row>
     <row r="595">
@@ -9683,7 +9683,7 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>     0</v>
+        <v>    88</v>
       </c>
     </row>
     <row r="596">
@@ -9697,7 +9697,7 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>     0</v>
+        <v>    73</v>
       </c>
     </row>
     <row r="597">
@@ -9711,7 +9711,7 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>     0</v>
+        <v>    73</v>
       </c>
     </row>
     <row r="598">
@@ -9809,7 +9809,7 @@
         <v>2000</v>
       </c>
       <c r="D604" t="n">
-        <v>   288</v>
+        <v>   279</v>
       </c>
     </row>
     <row r="605">
@@ -9823,7 +9823,7 @@
         <v>2001</v>
       </c>
       <c r="D605" t="n">
-        <v>   517</v>
+        <v>   123</v>
       </c>
     </row>
     <row r="606">
@@ -9837,7 +9837,7 @@
         <v>2002</v>
       </c>
       <c r="D606" t="n">
-        <v>   438</v>
+        <v>    53</v>
       </c>
     </row>
     <row r="607">
@@ -9851,7 +9851,7 @@
         <v>2003</v>
       </c>
       <c r="D607" t="n">
-        <v>   121</v>
+        <v>   112</v>
       </c>
     </row>
     <row r="608">
@@ -9865,7 +9865,7 @@
         <v>2004</v>
       </c>
       <c r="D608" t="n">
-        <v>   126</v>
+        <v>    42</v>
       </c>
     </row>
     <row r="609">
@@ -9879,7 +9879,7 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>    88</v>
+        <v>    86</v>
       </c>
     </row>
     <row r="610">
@@ -9893,7 +9893,7 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>    73</v>
+        <v>    58</v>
       </c>
     </row>
     <row r="611">
@@ -9907,7 +9907,7 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>    73</v>
+        <v>    60</v>
       </c>
     </row>
     <row r="612">
@@ -9921,7 +9921,7 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>     0</v>
+        <v>    36</v>
       </c>
     </row>
     <row r="613">
@@ -9935,7 +9935,7 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>     0</v>
+        <v>    73</v>
       </c>
     </row>
     <row r="614">
@@ -9949,7 +9949,7 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>     0</v>
+        <v>    41</v>
       </c>
     </row>
     <row r="615">
@@ -9963,7 +9963,7 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>     0</v>
+        <v>    23</v>
       </c>
     </row>
     <row r="616">
@@ -9977,7 +9977,7 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>     0</v>
+        <v>    26</v>
       </c>
     </row>
     <row r="617">
@@ -9991,7 +9991,7 @@
         <v>2013</v>
       </c>
       <c r="D617" t="n">
-        <v>     0</v>
+        <v>    31</v>
       </c>
     </row>
     <row r="618">
@@ -10005,7 +10005,7 @@
         <v>2000</v>
       </c>
       <c r="D618" t="n">
-        <v>   279</v>
+        <v>   121</v>
       </c>
     </row>
     <row r="619">
@@ -10019,7 +10019,7 @@
         <v>2001</v>
       </c>
       <c r="D619" t="n">
-        <v>   123</v>
+        <v>    99</v>
       </c>
     </row>
     <row r="620">
@@ -10033,7 +10033,7 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>    53</v>
+        <v>   133</v>
       </c>
     </row>
     <row r="621">
@@ -10047,7 +10047,7 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>   112</v>
+        <v>   202</v>
       </c>
     </row>
     <row r="622">
@@ -10061,7 +10061,7 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>    42</v>
+        <v>   129</v>
       </c>
     </row>
     <row r="623">
@@ -10075,7 +10075,7 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>    86</v>
+        <v>   119</v>
       </c>
     </row>
     <row r="624">
@@ -10089,7 +10089,7 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>    58</v>
+        <v>   150</v>
       </c>
     </row>
     <row r="625">
@@ -10103,7 +10103,7 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>    60</v>
+        <v>   124</v>
       </c>
     </row>
     <row r="626">
@@ -10117,7 +10117,7 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>    36</v>
+        <v>   130</v>
       </c>
     </row>
     <row r="627">
@@ -10131,7 +10131,7 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>    73</v>
+        <v>   152</v>
       </c>
     </row>
     <row r="628">
@@ -10145,7 +10145,7 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>    41</v>
+        <v>   166</v>
       </c>
     </row>
     <row r="629">
@@ -10159,7 +10159,7 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>    23</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="630">
@@ -10173,7 +10173,7 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>    26</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="631">
@@ -10187,7 +10187,7 @@
         <v>2013</v>
       </c>
       <c r="D631" t="n">
-        <v>    31</v>
+        <v>     0</v>
       </c>
     </row>
     <row r="632">
@@ -38452,9 +38452,7 @@
       <c r="C2802" t="n">
         <v>2000</v>
       </c>
-      <c r="D2802" t="n">
-        <v>     7</v>
-      </c>
+      <c r="D2802"/>
     </row>
     <row r="2803">
       <c r="A2803" t="s">
@@ -38466,9 +38464,7 @@
       <c r="C2803" t="n">
         <v>2001</v>
       </c>
-      <c r="D2803" t="n">
-        <v>    10</v>
-      </c>
+      <c r="D2803"/>
     </row>
     <row r="2804">
       <c r="A2804" t="s">
@@ -38480,9 +38476,7 @@
       <c r="C2804" t="n">
         <v>2002</v>
       </c>
-      <c r="D2804" t="n">
-        <v>    15</v>
-      </c>
+      <c r="D2804"/>
     </row>
     <row r="2805">
       <c r="A2805" t="s">
@@ -38494,9 +38488,7 @@
       <c r="C2805" t="n">
         <v>2003</v>
       </c>
-      <c r="D2805" t="n">
-        <v>     6</v>
-      </c>
+      <c r="D2805"/>
     </row>
     <row r="2806">
       <c r="A2806" t="s">
@@ -38508,9 +38500,7 @@
       <c r="C2806" t="n">
         <v>2004</v>
       </c>
-      <c r="D2806" t="n">
-        <v>    10</v>
-      </c>
+      <c r="D2806"/>
     </row>
     <row r="2807">
       <c r="A2807" t="s">
@@ -38522,9 +38512,7 @@
       <c r="C2807" t="n">
         <v>2005</v>
       </c>
-      <c r="D2807" t="n">
-        <v>     3</v>
-      </c>
+      <c r="D2807"/>
     </row>
     <row r="2808">
       <c r="A2808" t="s">
@@ -38536,9 +38524,7 @@
       <c r="C2808" t="n">
         <v>2006</v>
       </c>
-      <c r="D2808" t="n">
-        <v>    18</v>
-      </c>
+      <c r="D2808"/>
     </row>
     <row r="2809">
       <c r="A2809" t="s">
@@ -38550,9 +38536,7 @@
       <c r="C2809" t="n">
         <v>2007</v>
       </c>
-      <c r="D2809" t="n">
-        <v>    12</v>
-      </c>
+      <c r="D2809"/>
     </row>
     <row r="2810">
       <c r="A2810" t="s">
@@ -38564,9 +38548,7 @@
       <c r="C2810" t="n">
         <v>2008</v>
       </c>
-      <c r="D2810" t="n">
-        <v>    23</v>
-      </c>
+      <c r="D2810"/>
     </row>
     <row r="2811">
       <c r="A2811" t="s">
@@ -38578,9 +38560,7 @@
       <c r="C2811" t="n">
         <v>2009</v>
       </c>
-      <c r="D2811" t="n">
-        <v>    53</v>
-      </c>
+      <c r="D2811"/>
     </row>
     <row r="2812">
       <c r="A2812" t="s">
@@ -38592,9 +38572,7 @@
       <c r="C2812" t="n">
         <v>2010</v>
       </c>
-      <c r="D2812" t="n">
-        <v>    34</v>
-      </c>
+      <c r="D2812"/>
     </row>
     <row r="2813">
       <c r="A2813" t="s">
@@ -38606,9 +38584,7 @@
       <c r="C2813" t="n">
         <v>2011</v>
       </c>
-      <c r="D2813" t="n">
-        <v>    57</v>
-      </c>
+      <c r="D2813"/>
     </row>
     <row r="2814">
       <c r="A2814" t="s">
@@ -38620,9 +38596,7 @@
       <c r="C2814" t="n">
         <v>2012</v>
       </c>
-      <c r="D2814" t="n">
-        <v>    61</v>
-      </c>
+      <c r="D2814"/>
     </row>
     <row r="2815">
       <c r="A2815" t="s">
@@ -38634,9 +38608,7 @@
       <c r="C2815" t="n">
         <v>2013</v>
       </c>
-      <c r="D2815" t="n">
-        <v>   133</v>
-      </c>
+      <c r="D2815"/>
     </row>
     <row r="2816">
       <c r="A2816" t="s">
@@ -38648,7 +38620,9 @@
       <c r="C2816" t="n">
         <v>2000</v>
       </c>
-      <c r="D2816"/>
+      <c r="D2816" t="n">
+        <v>     7</v>
+      </c>
     </row>
     <row r="2817">
       <c r="A2817" t="s">
@@ -38660,7 +38634,9 @@
       <c r="C2817" t="n">
         <v>2001</v>
       </c>
-      <c r="D2817"/>
+      <c r="D2817" t="n">
+        <v>    10</v>
+      </c>
     </row>
     <row r="2818">
       <c r="A2818" t="s">
@@ -38672,7 +38648,9 @@
       <c r="C2818" t="n">
         <v>2002</v>
       </c>
-      <c r="D2818"/>
+      <c r="D2818" t="n">
+        <v>    15</v>
+      </c>
     </row>
     <row r="2819">
       <c r="A2819" t="s">
@@ -38684,7 +38662,9 @@
       <c r="C2819" t="n">
         <v>2003</v>
       </c>
-      <c r="D2819"/>
+      <c r="D2819" t="n">
+        <v>     6</v>
+      </c>
     </row>
     <row r="2820">
       <c r="A2820" t="s">
@@ -38696,7 +38676,9 @@
       <c r="C2820" t="n">
         <v>2004</v>
       </c>
-      <c r="D2820"/>
+      <c r="D2820" t="n">
+        <v>    10</v>
+      </c>
     </row>
     <row r="2821">
       <c r="A2821" t="s">
@@ -38708,7 +38690,9 @@
       <c r="C2821" t="n">
         <v>2005</v>
       </c>
-      <c r="D2821"/>
+      <c r="D2821" t="n">
+        <v>     3</v>
+      </c>
     </row>
     <row r="2822">
       <c r="A2822" t="s">
@@ -38720,7 +38704,9 @@
       <c r="C2822" t="n">
         <v>2006</v>
       </c>
-      <c r="D2822"/>
+      <c r="D2822" t="n">
+        <v>    18</v>
+      </c>
     </row>
     <row r="2823">
       <c r="A2823" t="s">
@@ -38732,7 +38718,9 @@
       <c r="C2823" t="n">
         <v>2007</v>
       </c>
-      <c r="D2823"/>
+      <c r="D2823" t="n">
+        <v>    12</v>
+      </c>
     </row>
     <row r="2824">
       <c r="A2824" t="s">
@@ -38744,7 +38732,9 @@
       <c r="C2824" t="n">
         <v>2008</v>
       </c>
-      <c r="D2824"/>
+      <c r="D2824" t="n">
+        <v>    23</v>
+      </c>
     </row>
     <row r="2825">
       <c r="A2825" t="s">
@@ -38756,7 +38746,9 @@
       <c r="C2825" t="n">
         <v>2009</v>
       </c>
-      <c r="D2825"/>
+      <c r="D2825" t="n">
+        <v>    53</v>
+      </c>
     </row>
     <row r="2826">
       <c r="A2826" t="s">
@@ -38768,7 +38760,9 @@
       <c r="C2826" t="n">
         <v>2010</v>
       </c>
-      <c r="D2826"/>
+      <c r="D2826" t="n">
+        <v>    34</v>
+      </c>
     </row>
     <row r="2827">
       <c r="A2827" t="s">
@@ -38780,7 +38774,9 @@
       <c r="C2827" t="n">
         <v>2011</v>
       </c>
-      <c r="D2827"/>
+      <c r="D2827" t="n">
+        <v>    57</v>
+      </c>
     </row>
     <row r="2828">
       <c r="A2828" t="s">
@@ -38792,7 +38788,9 @@
       <c r="C2828" t="n">
         <v>2012</v>
       </c>
-      <c r="D2828"/>
+      <c r="D2828" t="n">
+        <v>    61</v>
+      </c>
     </row>
     <row r="2829">
       <c r="A2829" t="s">
@@ -38804,7 +38802,9 @@
       <c r="C2829" t="n">
         <v>2013</v>
       </c>
-      <c r="D2829"/>
+      <c r="D2829" t="n">
+        <v>   133</v>
+      </c>
     </row>
     <row r="2830">
       <c r="A2830" t="s">
@@ -41904,46 +41904,46 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v> 121</v>
+        <v>  83</v>
       </c>
       <c r="D33" t="n">
-        <v>   99</v>
+        <v>   91</v>
       </c>
       <c r="E33" t="n">
-        <v> 133</v>
+        <v> 110</v>
       </c>
       <c r="F33" t="n">
-        <v>   202</v>
+        <v>   190</v>
       </c>
       <c r="G33" t="n">
-        <v>  129</v>
+        <v>  156</v>
       </c>
       <c r="H33" t="n">
-        <v> 119</v>
+        <v>  60</v>
       </c>
       <c r="I33" t="n">
-        <v>  150</v>
+        <v>   56</v>
       </c>
       <c r="J33" t="n">
-        <v>124</v>
+        <v> 41</v>
       </c>
       <c r="K33" t="n">
-        <v>  130</v>
+        <v>   49</v>
       </c>
       <c r="L33" t="n">
-        <v>152</v>
+        <v> 65</v>
       </c>
       <c r="M33" t="n">
-        <v> 166</v>
+        <v>  53</v>
       </c>
       <c r="N33" t="n">
-        <v>  0</v>
+        <v> 56</v>
       </c>
       <c r="O33" t="n">
-        <v>   0</v>
+        <v>  43</v>
       </c>
       <c r="P33" t="n">
-        <v>  0</v>
+        <v> 50</v>
       </c>
     </row>
     <row r="34">
@@ -41954,46 +41954,46 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>  83</v>
+        <v>  26</v>
       </c>
       <c r="D34" t="n">
-        <v>   91</v>
+        <v>   74</v>
       </c>
       <c r="E34" t="n">
-        <v> 110</v>
+        <v>  15</v>
       </c>
       <c r="F34" t="n">
-        <v>   190</v>
+        <v>    37</v>
       </c>
       <c r="G34" t="n">
-        <v>  156</v>
+        <v>  216</v>
       </c>
       <c r="H34" t="n">
-        <v>  60</v>
+        <v> 119</v>
       </c>
       <c r="I34" t="n">
-        <v>   56</v>
+        <v>   17</v>
       </c>
       <c r="J34" t="n">
-        <v> 41</v>
+        <v>203</v>
       </c>
       <c r="K34" t="n">
-        <v>   49</v>
+        <v>  787</v>
       </c>
       <c r="L34" t="n">
-        <v> 65</v>
+        <v> 59</v>
       </c>
       <c r="M34" t="n">
-        <v>  53</v>
+        <v>  31</v>
       </c>
       <c r="N34" t="n">
-        <v> 56</v>
+        <v> 43</v>
       </c>
       <c r="O34" t="n">
-        <v>  43</v>
+        <v>  96</v>
       </c>
       <c r="P34" t="n">
-        <v> 50</v>
+        <v>  0</v>
       </c>
     </row>
     <row r="35">
@@ -42003,48 +42003,20 @@
       <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C35" t="n">
-        <v>  26</v>
-      </c>
-      <c r="D35" t="n">
-        <v>   74</v>
-      </c>
-      <c r="E35" t="n">
-        <v>  15</v>
-      </c>
-      <c r="F35" t="n">
-        <v>    37</v>
-      </c>
-      <c r="G35" t="n">
-        <v>  216</v>
-      </c>
-      <c r="H35" t="n">
-        <v> 119</v>
-      </c>
-      <c r="I35" t="n">
-        <v>   17</v>
-      </c>
-      <c r="J35" t="n">
-        <v>203</v>
-      </c>
-      <c r="K35" t="n">
-        <v>  787</v>
-      </c>
-      <c r="L35" t="n">
-        <v> 59</v>
-      </c>
-      <c r="M35" t="n">
-        <v>  31</v>
-      </c>
-      <c r="N35" t="n">
-        <v> 43</v>
-      </c>
-      <c r="O35" t="n">
-        <v>  96</v>
-      </c>
-      <c r="P35" t="n">
-        <v>  0</v>
-      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -42053,20 +42025,48 @@
       <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
+      <c r="C36" t="n">
+        <v>  12</v>
+      </c>
+      <c r="D36" t="n">
+        <v>   11</v>
+      </c>
+      <c r="E36" t="n">
+        <v>  11</v>
+      </c>
+      <c r="F36" t="n">
+        <v>     8</v>
+      </c>
+      <c r="G36" t="n">
+        <v>    6</v>
+      </c>
+      <c r="H36" t="n">
+        <v>  13</v>
+      </c>
+      <c r="I36" t="n">
+        <v>   18</v>
+      </c>
+      <c r="J36" t="n">
+        <v> 15</v>
+      </c>
+      <c r="K36" t="n">
+        <v>   14</v>
+      </c>
+      <c r="L36" t="n">
+        <v> 15</v>
+      </c>
+      <c r="M36" t="n">
+        <v>  35</v>
+      </c>
+      <c r="N36" t="n">
+        <v> 27</v>
+      </c>
+      <c r="O36" t="n">
+        <v>  40</v>
+      </c>
+      <c r="P36" t="n">
+        <v> 70</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -42076,46 +42076,46 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>  12</v>
+        <v>   0</v>
       </c>
       <c r="D37" t="n">
-        <v>   11</v>
+        <v>    0</v>
       </c>
       <c r="E37" t="n">
-        <v>  11</v>
+        <v>   0</v>
       </c>
       <c r="F37" t="n">
-        <v>     8</v>
+        <v>     0</v>
       </c>
       <c r="G37" t="n">
-        <v>    6</v>
+        <v>    0</v>
       </c>
       <c r="H37" t="n">
-        <v>  13</v>
+        <v>   0</v>
       </c>
       <c r="I37" t="n">
-        <v>   18</v>
+        <v>    0</v>
       </c>
       <c r="J37" t="n">
-        <v> 15</v>
+        <v>  0</v>
       </c>
       <c r="K37" t="n">
-        <v>   14</v>
+        <v>    0</v>
       </c>
       <c r="L37" t="n">
-        <v> 15</v>
+        <v>  0</v>
       </c>
       <c r="M37" t="n">
-        <v>  35</v>
+        <v>   0</v>
       </c>
       <c r="N37" t="n">
-        <v> 27</v>
+        <v>  0</v>
       </c>
       <c r="O37" t="n">
-        <v>  40</v>
+        <v>   0</v>
       </c>
       <c r="P37" t="n">
-        <v> 70</v>
+        <v>  0</v>
       </c>
     </row>
     <row r="38">
@@ -42125,48 +42125,20 @@
       <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="n">
-        <v>   0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>    0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>   0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>     0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>    0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>   0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>    0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>  0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>    0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>  0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>   0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>  0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>   0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>  0</v>
-      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -42175,20 +42147,42 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
+      <c r="C39" t="n">
+        <v>   0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>    0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>   0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>     0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>    0</v>
+      </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
+      <c r="K39" t="n">
+        <v>    0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>  0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>   0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>  0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>   0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>  0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -42197,42 +42191,20 @@
       <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="C40" t="n">
-        <v>   0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>    0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>   0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>     0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>    0</v>
-      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
-      <c r="K40" t="n">
-        <v>    0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>  0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>   0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>  0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>   0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>  0</v>
-      </c>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -42241,20 +42213,48 @@
       <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
+      <c r="C41" t="n">
+        <v>  50</v>
+      </c>
+      <c r="D41" t="n">
+        <v>   46</v>
+      </c>
+      <c r="E41" t="n">
+        <v>  34</v>
+      </c>
+      <c r="F41" t="n">
+        <v>    37</v>
+      </c>
+      <c r="G41" t="n">
+        <v>   31</v>
+      </c>
+      <c r="H41" t="n">
+        <v>  66</v>
+      </c>
+      <c r="I41" t="n">
+        <v>   68</v>
+      </c>
+      <c r="J41" t="n">
+        <v> 74</v>
+      </c>
+      <c r="K41" t="n">
+        <v>   67</v>
+      </c>
+      <c r="L41" t="n">
+        <v>112</v>
+      </c>
+      <c r="M41" t="n">
+        <v> 139</v>
+      </c>
+      <c r="N41" t="n">
+        <v>165</v>
+      </c>
+      <c r="O41" t="n">
+        <v> 142</v>
+      </c>
+      <c r="P41" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -42264,46 +42264,46 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
+        <v>  27</v>
+      </c>
+      <c r="D42" t="n">
+        <v>   36</v>
+      </c>
+      <c r="E42" t="n">
         <v>  50</v>
       </c>
-      <c r="D42" t="n">
-        <v>   46</v>
-      </c>
-      <c r="E42" t="n">
-        <v>  34</v>
-      </c>
       <c r="F42" t="n">
-        <v>    37</v>
+        <v>    88</v>
       </c>
       <c r="G42" t="n">
-        <v>   31</v>
+        <v>   81</v>
       </c>
       <c r="H42" t="n">
-        <v>  66</v>
+        <v>  35</v>
       </c>
       <c r="I42" t="n">
-        <v>   68</v>
+        <v>   69</v>
       </c>
       <c r="J42" t="n">
-        <v> 74</v>
+        <v> 73</v>
       </c>
       <c r="K42" t="n">
-        <v>   67</v>
+        <v>   82</v>
       </c>
       <c r="L42" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M42" t="n">
-        <v> 139</v>
+        <v> 148</v>
       </c>
       <c r="N42" t="n">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="O42" t="n">
-        <v> 142</v>
+        <v>  96</v>
       </c>
       <c r="P42" t="n">
-        <v>167</v>
+        <v> 80</v>
       </c>
     </row>
     <row r="43">
@@ -42314,46 +42314,46 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>  27</v>
+        <v>   0</v>
       </c>
       <c r="D43" t="n">
-        <v>   36</v>
+        <v>    0</v>
       </c>
       <c r="E43" t="n">
-        <v>  50</v>
+        <v>   0</v>
       </c>
       <c r="F43" t="n">
-        <v>    88</v>
+        <v>     0</v>
       </c>
       <c r="G43" t="n">
-        <v>   81</v>
+        <v>    0</v>
       </c>
       <c r="H43" t="n">
-        <v>  35</v>
+        <v>   0</v>
       </c>
       <c r="I43" t="n">
-        <v>   69</v>
+        <v>    0</v>
       </c>
       <c r="J43" t="n">
-        <v> 73</v>
+        <v>  0</v>
       </c>
       <c r="K43" t="n">
-        <v>   82</v>
+        <v>    0</v>
       </c>
       <c r="L43" t="n">
-        <v>107</v>
+        <v>  0</v>
       </c>
       <c r="M43" t="n">
-        <v> 148</v>
+        <v>   0</v>
       </c>
       <c r="N43" t="n">
-        <v>110</v>
+        <v>  0</v>
       </c>
       <c r="O43" t="n">
-        <v>  96</v>
+        <v>   0</v>
       </c>
       <c r="P43" t="n">
-        <v> 80</v>
+        <v>  0</v>
       </c>
     </row>
     <row r="44">
@@ -42364,28 +42364,28 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>   0</v>
+        <v> 288</v>
       </c>
       <c r="D44" t="n">
-        <v>    0</v>
+        <v>  517</v>
       </c>
       <c r="E44" t="n">
-        <v>   0</v>
+        <v> 438</v>
       </c>
       <c r="F44" t="n">
-        <v>     0</v>
+        <v>   121</v>
       </c>
       <c r="G44" t="n">
-        <v>    0</v>
+        <v>  126</v>
       </c>
       <c r="H44" t="n">
-        <v>   0</v>
+        <v>  88</v>
       </c>
       <c r="I44" t="n">
-        <v>    0</v>
+        <v>   73</v>
       </c>
       <c r="J44" t="n">
-        <v>  0</v>
+        <v> 73</v>
       </c>
       <c r="K44" t="n">
         <v>    0</v>
@@ -42414,46 +42414,46 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v> 288</v>
+        <v> 279</v>
       </c>
       <c r="D45" t="n">
-        <v>  517</v>
+        <v>  123</v>
       </c>
       <c r="E45" t="n">
-        <v> 438</v>
+        <v>  53</v>
       </c>
       <c r="F45" t="n">
-        <v>   121</v>
+        <v>   112</v>
       </c>
       <c r="G45" t="n">
-        <v>  126</v>
+        <v>   42</v>
       </c>
       <c r="H45" t="n">
-        <v>  88</v>
+        <v>  86</v>
       </c>
       <c r="I45" t="n">
-        <v>   73</v>
+        <v>   58</v>
       </c>
       <c r="J45" t="n">
+        <v> 60</v>
+      </c>
+      <c r="K45" t="n">
+        <v>   36</v>
+      </c>
+      <c r="L45" t="n">
         <v> 73</v>
       </c>
-      <c r="K45" t="n">
-        <v>    0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>  0</v>
-      </c>
       <c r="M45" t="n">
-        <v>   0</v>
+        <v>  41</v>
       </c>
       <c r="N45" t="n">
-        <v>  0</v>
+        <v> 23</v>
       </c>
       <c r="O45" t="n">
-        <v>   0</v>
+        <v>  26</v>
       </c>
       <c r="P45" t="n">
-        <v>  0</v>
+        <v> 31</v>
       </c>
     </row>
     <row r="46">
@@ -42464,46 +42464,46 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v> 279</v>
+        <v> 121</v>
       </c>
       <c r="D46" t="n">
-        <v>  123</v>
+        <v>   99</v>
       </c>
       <c r="E46" t="n">
-        <v>  53</v>
+        <v> 133</v>
       </c>
       <c r="F46" t="n">
-        <v>   112</v>
+        <v>   202</v>
       </c>
       <c r="G46" t="n">
-        <v>   42</v>
+        <v>  129</v>
       </c>
       <c r="H46" t="n">
-        <v>  86</v>
+        <v> 119</v>
       </c>
       <c r="I46" t="n">
-        <v>   58</v>
+        <v>  150</v>
       </c>
       <c r="J46" t="n">
-        <v> 60</v>
+        <v>124</v>
       </c>
       <c r="K46" t="n">
-        <v>   36</v>
+        <v>  130</v>
       </c>
       <c r="L46" t="n">
-        <v> 73</v>
+        <v>152</v>
       </c>
       <c r="M46" t="n">
-        <v>  41</v>
+        <v> 166</v>
       </c>
       <c r="N46" t="n">
-        <v> 23</v>
+        <v>  0</v>
       </c>
       <c r="O46" t="n">
-        <v>  26</v>
+        <v>   0</v>
       </c>
       <c r="P46" t="n">
-        <v> 31</v>
+        <v>  0</v>
       </c>
     </row>
     <row r="47">
@@ -48135,48 +48135,20 @@
       <c r="B202" t="s">
         <v>405</v>
       </c>
-      <c r="C202" t="n">
-        <v>   7</v>
-      </c>
-      <c r="D202" t="n">
-        <v>   10</v>
-      </c>
-      <c r="E202" t="n">
-        <v>  15</v>
-      </c>
-      <c r="F202" t="n">
-        <v>     6</v>
-      </c>
-      <c r="G202" t="n">
-        <v>   10</v>
-      </c>
-      <c r="H202" t="n">
-        <v>   3</v>
-      </c>
-      <c r="I202" t="n">
-        <v>   18</v>
-      </c>
-      <c r="J202" t="n">
-        <v> 12</v>
-      </c>
-      <c r="K202" t="n">
-        <v>   23</v>
-      </c>
-      <c r="L202" t="n">
-        <v> 53</v>
-      </c>
-      <c r="M202" t="n">
-        <v>  34</v>
-      </c>
-      <c r="N202" t="n">
-        <v> 57</v>
-      </c>
-      <c r="O202" t="n">
-        <v>  61</v>
-      </c>
-      <c r="P202" t="n">
-        <v>133</v>
-      </c>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
+      <c r="H202"/>
+      <c r="I202"/>
+      <c r="J202"/>
+      <c r="K202"/>
+      <c r="L202"/>
+      <c r="M202"/>
+      <c r="N202"/>
+      <c r="O202"/>
+      <c r="P202"/>
     </row>
     <row r="203">
       <c r="A203" t="s">
@@ -48185,20 +48157,48 @@
       <c r="B203" t="s">
         <v>407</v>
       </c>
-      <c r="C203"/>
-      <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
-      <c r="G203"/>
-      <c r="H203"/>
-      <c r="I203"/>
-      <c r="J203"/>
-      <c r="K203"/>
-      <c r="L203"/>
-      <c r="M203"/>
-      <c r="N203"/>
-      <c r="O203"/>
-      <c r="P203"/>
+      <c r="C203" t="n">
+        <v>   7</v>
+      </c>
+      <c r="D203" t="n">
+        <v>   10</v>
+      </c>
+      <c r="E203" t="n">
+        <v>  15</v>
+      </c>
+      <c r="F203" t="n">
+        <v>     6</v>
+      </c>
+      <c r="G203" t="n">
+        <v>   10</v>
+      </c>
+      <c r="H203" t="n">
+        <v>   3</v>
+      </c>
+      <c r="I203" t="n">
+        <v>   18</v>
+      </c>
+      <c r="J203" t="n">
+        <v> 12</v>
+      </c>
+      <c r="K203" t="n">
+        <v>   23</v>
+      </c>
+      <c r="L203" t="n">
+        <v> 53</v>
+      </c>
+      <c r="M203" t="n">
+        <v>  34</v>
+      </c>
+      <c r="N203" t="n">
+        <v> 57</v>
+      </c>
+      <c r="O203" t="n">
+        <v>  61</v>
+      </c>
+      <c r="P203" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
